--- a/cost/assets/formatsXlsx/Productos_Procesos.xlsx
+++ b/cost/assets/formatsXlsx/Productos_Procesos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desarrollo\apps\htdocs\tezlikv2\app\assets\formatsXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8FDD06-166A-4E2C-9EFB-454BB7D2CD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90F628-E728-4717-9D9A-3404C698DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>referencia_producto</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>tiempo_operacion</t>
+  </si>
+  <si>
+    <t>maquina_autonoma</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -237,23 +240,178 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -274,6 +432,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -297,148 +462,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -453,23 +476,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="referencia_producto" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="producto" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="proceso" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="maquina" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="tiempo_enlistamiento" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="tiempo_operacion" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="referencia_producto" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="producto" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="proceso" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="maquina" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="tiempo_enlistamiento" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="tiempo_operacion" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{257E99CF-BDE5-4906-B8F8-40010A2F5953}" name="maquina_autonoma" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,9 +531,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,26 +566,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,26 +601,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,9 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -799,10 +791,11 @@
     <col min="4" max="4" width="31.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="3"/>
+    <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,72 +814,88 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="8"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="8"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8"/>
       <c r="D5" s="1"/>
       <c r="E5" s="8"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8"/>
       <c r="D6" s="1"/>
       <c r="E6" s="8"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
       <c r="D7" s="1"/>
       <c r="E7" s="8"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="8"/>
       <c r="F8" s="1"/>
+      <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="10"/>
+      <c r="G9" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G9" xr:uid="{4D4205F9-FCD8-491F-8D55-50A2C340293D}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">

--- a/cost/assets/formatsXlsx/Productos_Procesos.xlsx
+++ b/cost/assets/formatsXlsx/Productos_Procesos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7FA024-DCAC-4840-A7F1-7EB74863EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,8 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,75 +187,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H9" displayName="Tabla1" name="Tabla1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn name="referencia_producto" id="1"/>
-    <tableColumn name="producto" id="2"/>
-    <tableColumn name="proceso" id="3"/>
-    <tableColumn name="maquina" id="4"/>
-    <tableColumn name="tiempo_enlistamiento" id="5"/>
-    <tableColumn name="tiempo_operacion" id="6"/>
-    <tableColumn name="eficiencia" id="7"/>
-    <tableColumn name="maquina_autonoma" id="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="referencia_producto"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="producto"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="proceso"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="maquina"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="tiempo_enlistamiento"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="tiempo_operacion"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="eficiencia" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="maquina_autonoma"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -259,10 +281,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -300,71 +322,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,7 +414,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -415,11 +437,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -428,13 +450,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,7 +466,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -453,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -462,7 +484,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,10 +492,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -538,27 +560,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="31.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="31.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,91 +604,96 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="9"/>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9" xr:uid="{227E8688-A619-47EF-B53B-D5B31A10B895}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
